--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/129.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/129.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2183321566866915</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.246840692353469</v>
+        <v>-1.256583593264102</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09557817219105037</v>
+        <v>-0.0766676293176009</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1836730938522085</v>
+        <v>-0.1641011491935774</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.197431320430422</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.3326433385119</v>
+        <v>-1.34430912275826</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1928436559112061</v>
+        <v>-0.1885204535140254</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1863814830608442</v>
+        <v>-0.1687689229402125</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1682726349414463</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.455364760697049</v>
+        <v>-1.469868878432136</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2033545421176578</v>
+        <v>-0.1899790415568432</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1951724326162055</v>
+        <v>-0.1817093291699363</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.128598365902528</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.621956247869731</v>
+        <v>-1.632931429369092</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2070645243166568</v>
+        <v>-0.2125163438881099</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1856310183421171</v>
+        <v>-0.1636908756800321</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07228828067392011</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.736571483054155</v>
+        <v>-1.743572413650062</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2129251573535643</v>
+        <v>-0.2244230360694703</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1958323743532962</v>
+        <v>-0.1777219378336647</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.004276677686819923</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.58888761865874</v>
+        <v>-1.588959161015195</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1265049108526784</v>
+        <v>-0.1376801189404936</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1737301663531203</v>
+        <v>-0.1663919646482132</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1022184410604628</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.404099552129063</v>
+        <v>-1.398860899578882</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04884495289724474</v>
+        <v>-0.06945061160423921</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1555394271884888</v>
+        <v>-0.1575951749004883</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2201950059466051</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.173695203095124</v>
+        <v>-1.186438502832576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07255804586181357</v>
+        <v>0.04902937087681988</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1517987839795807</v>
+        <v>-0.1516922004689444</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3565325766576811</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8083050279124044</v>
+        <v>-0.8257161013964907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1626444731189712</v>
+        <v>0.1341691552019788</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1307667912300409</v>
+        <v>-0.1397460869891294</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5104021886790323</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4568729124787715</v>
+        <v>-0.4703155752517679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16362270533988</v>
+        <v>0.1257081765151629</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06571872868387657</v>
+        <v>-0.07502799531151044</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.681319860013336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06535416858127005</v>
+        <v>0.06446499929390664</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1478366653809752</v>
+        <v>0.108628533947713</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04625527950409336</v>
+        <v>0.04523178579236636</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.8701388120537046</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5620858898778639</v>
+        <v>0.5679363025781351</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08649858503380982</v>
+        <v>0.04454702323773018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1881354527381462</v>
+        <v>0.1883033582686007</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.074670456433894</v>
       </c>
       <c r="E14" t="n">
-        <v>1.128750994632803</v>
+        <v>1.145978102057434</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02255970711661544</v>
+        <v>-0.08213696946614489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2993151947646618</v>
+        <v>0.2902220152544824</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.289082728048475</v>
       </c>
       <c r="E15" t="n">
-        <v>1.764196044854268</v>
+        <v>1.788590528357171</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1657948049790315</v>
+        <v>-0.2337892445726496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5067150260782425</v>
+        <v>0.5096833038470598</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.505593872572208</v>
       </c>
       <c r="E16" t="n">
-        <v>2.440250872676269</v>
+        <v>2.456146416241992</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3316956894047142</v>
+        <v>-0.3866811005083358</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6357453160642078</v>
+        <v>0.6458911902479323</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.716286142442341</v>
       </c>
       <c r="E17" t="n">
-        <v>3.087206942046459</v>
+        <v>3.11193723661027</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4703579166464043</v>
+        <v>-0.5231809965273901</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7815734593360777</v>
+        <v>0.7961257586581647</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.919742399829854</v>
       </c>
       <c r="E18" t="n">
-        <v>3.699583232431567</v>
+        <v>3.710492711766837</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6133448063333659</v>
+        <v>-0.6649589663950793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9532590542979407</v>
+        <v>0.9630180157375745</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.116596928819454</v>
       </c>
       <c r="E19" t="n">
-        <v>4.216231469736246</v>
+        <v>4.214695499144611</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7756160112050496</v>
+        <v>-0.8430162112256678</v>
       </c>
       <c r="G19" t="n">
-        <v>1.07538623691009</v>
+        <v>1.080781114605997</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.306112039466297</v>
       </c>
       <c r="E20" t="n">
-        <v>4.704267144603388</v>
+        <v>4.689771787156847</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.955035480904456</v>
+        <v>-1.016446563656167</v>
       </c>
       <c r="G20" t="n">
-        <v>1.235867422822319</v>
+        <v>1.253151472122497</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.481867060149647</v>
       </c>
       <c r="E21" t="n">
-        <v>5.203688274483436</v>
+        <v>5.184834673485532</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.155078129887948</v>
+        <v>-1.215734367776659</v>
       </c>
       <c r="G21" t="n">
-        <v>1.400312639301366</v>
+        <v>1.413105580673908</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.630304490770939</v>
       </c>
       <c r="E22" t="n">
-        <v>5.592742909123604</v>
+        <v>5.569804093567337</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.344547110597079</v>
+        <v>-1.392769578943611</v>
       </c>
       <c r="G22" t="n">
-        <v>1.521588613876515</v>
+        <v>1.532213383834058</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.740873483714914</v>
       </c>
       <c r="E23" t="n">
-        <v>5.850466217986535</v>
+        <v>5.824972318271178</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.541834648833026</v>
+        <v>-1.593454649087103</v>
       </c>
       <c r="G23" t="n">
-        <v>1.667091166424113</v>
+        <v>1.681770489930109</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.807681783512854</v>
       </c>
       <c r="E24" t="n">
-        <v>6.140225902060184</v>
+        <v>6.108028921559466</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.689715619720713</v>
+        <v>-1.735958262855974</v>
       </c>
       <c r="G24" t="n">
-        <v>1.818054298831709</v>
+        <v>1.83234086940125</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.83094826022977</v>
       </c>
       <c r="E25" t="n">
-        <v>6.272145627218058</v>
+        <v>6.238630223291249</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.853649819367942</v>
+        <v>-1.905591030202019</v>
       </c>
       <c r="G25" t="n">
-        <v>1.857450776468698</v>
+        <v>1.86540803856415</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.814472046504313</v>
       </c>
       <c r="E26" t="n">
-        <v>6.33643592480504</v>
+        <v>6.28100227893751</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.902272340891384</v>
+        <v>-1.952741093225779</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86330264921706</v>
+        <v>1.864142176869332</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.763068807163562</v>
       </c>
       <c r="E27" t="n">
-        <v>6.34909600180131</v>
+        <v>6.28935813416178</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.971765519850319</v>
+        <v>-2.013925138499353</v>
       </c>
       <c r="G27" t="n">
-        <v>1.959684803842216</v>
+        <v>1.959061363307398</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.682716648592012</v>
       </c>
       <c r="E28" t="n">
-        <v>6.439910993055831</v>
+        <v>6.372881645250303</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.050493502984253</v>
+        <v>-2.092735614350423</v>
       </c>
       <c r="G28" t="n">
-        <v>2.004187069653113</v>
+        <v>1.992708171562389</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.579234115305324</v>
       </c>
       <c r="E29" t="n">
-        <v>6.335545295469586</v>
+        <v>6.268847378580695</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.109765615282782</v>
+        <v>-2.158548742096224</v>
       </c>
       <c r="G29" t="n">
-        <v>2.015579824906474</v>
+        <v>1.997761398005024</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.457953415954981</v>
       </c>
       <c r="E30" t="n">
-        <v>6.301688240289504</v>
+        <v>6.22513645883507</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.216872553159708</v>
+        <v>-2.260499520140105</v>
       </c>
       <c r="G30" t="n">
-        <v>2.046024747698102</v>
+        <v>2.022504833001654</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.323785855592215</v>
       </c>
       <c r="E31" t="n">
-        <v>6.201101147162531</v>
+        <v>6.113133249685283</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.263370704710877</v>
+        <v>-2.311359565362864</v>
       </c>
       <c r="G31" t="n">
-        <v>1.982806125409846</v>
+        <v>1.957237763241853</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.179921296042336</v>
       </c>
       <c r="E32" t="n">
-        <v>6.001093539333222</v>
+        <v>5.897719214400704</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.291957716306824</v>
+        <v>-2.332909875184677</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94537487250322</v>
+        <v>1.938403142869131</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.031520633643865</v>
       </c>
       <c r="E33" t="n">
-        <v>5.81621786991809</v>
+        <v>5.708118829363391</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336966618805267</v>
+        <v>-2.378688953051074</v>
       </c>
       <c r="G33" t="n">
-        <v>1.930067728318133</v>
+        <v>1.923846463402771</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.881738368442596</v>
       </c>
       <c r="E34" t="n">
-        <v>5.574286441206427</v>
+        <v>5.449804201023642</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.422216636761289</v>
+        <v>-2.471354555260822</v>
       </c>
       <c r="G34" t="n">
-        <v>1.853891179223063</v>
+        <v>1.834662345865795</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.733049316545946</v>
       </c>
       <c r="E35" t="n">
-        <v>5.379797815160752</v>
+        <v>5.252224653169514</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.433635672880286</v>
+        <v>-2.471687446225549</v>
       </c>
       <c r="G35" t="n">
-        <v>1.795711182896533</v>
+        <v>1.787222463295989</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.586980500079614</v>
       </c>
       <c r="E36" t="n">
-        <v>5.19052010075153</v>
+        <v>5.066191165618291</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.409792357531702</v>
+        <v>-2.445879636170647</v>
       </c>
       <c r="G36" t="n">
-        <v>1.703247797347376</v>
+        <v>1.697173997289195</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.444174751674663</v>
       </c>
       <c r="E37" t="n">
-        <v>4.839051484115624</v>
+        <v>4.715994250869567</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.350262546745127</v>
+        <v>-2.380305956311755</v>
       </c>
       <c r="G37" t="n">
-        <v>1.610378518428946</v>
+        <v>1.604990940973493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.307220837941859</v>
       </c>
       <c r="E38" t="n">
-        <v>4.638262750557678</v>
+        <v>4.528099202002435</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.236881052197521</v>
+        <v>-2.259042392145378</v>
       </c>
       <c r="G38" t="n">
-        <v>1.525281075498423</v>
+        <v>1.518239263555971</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.176587242190872</v>
       </c>
       <c r="E39" t="n">
-        <v>4.296938548057406</v>
+        <v>4.19089963535898</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.20752532528171</v>
+        <v>-2.233626605002885</v>
       </c>
       <c r="G39" t="n">
-        <v>1.413774282699544</v>
+        <v>1.407141284222546</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.052270815294884</v>
       </c>
       <c r="E40" t="n">
-        <v>3.970187085552494</v>
+        <v>3.860736040465615</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.145807632430909</v>
+        <v>-2.162362387709677</v>
       </c>
       <c r="G40" t="n">
-        <v>1.312917080675753</v>
+        <v>1.301753552972665</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9340517799633855</v>
       </c>
       <c r="E41" t="n">
-        <v>3.687077920532934</v>
+        <v>3.584604445272507</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.056064316475115</v>
+        <v>-2.059020913859205</v>
       </c>
       <c r="G41" t="n">
-        <v>1.197887191833511</v>
+        <v>1.183058943422243</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8216587183564955</v>
       </c>
       <c r="E42" t="n">
-        <v>3.380572944904653</v>
+        <v>3.273749986381409</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.951030646887279</v>
+        <v>-1.955437072025642</v>
       </c>
       <c r="G42" t="n">
-        <v>1.096234263600175</v>
+        <v>1.087364471447905</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7163087636050499</v>
       </c>
       <c r="E43" t="n">
-        <v>3.141764559059444</v>
+        <v>3.044123842979925</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.913735178453108</v>
+        <v>-1.923296303376423</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9966589838002018</v>
+        <v>0.9798538302738427</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6177209352270862</v>
       </c>
       <c r="E44" t="n">
-        <v>2.888545498556967</v>
+        <v>2.785401861222812</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.872114317549619</v>
+        <v>-1.880603037150162</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8754545515815071</v>
+        <v>0.8543101351289673</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5252710651321474</v>
       </c>
       <c r="E45" t="n">
-        <v>2.623669414096674</v>
+        <v>2.523463393521428</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.7390053832217</v>
+        <v>-1.744133072116971</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7605122656247197</v>
+        <v>0.7487238373387229</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4386835754703442</v>
       </c>
       <c r="E46" t="n">
-        <v>2.416780599614911</v>
+        <v>2.31328801078703</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.668096687638628</v>
+        <v>-1.679836934337625</v>
       </c>
       <c r="G46" t="n">
-        <v>0.737240559103726</v>
+        <v>0.7266508303003653</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3578824247898937</v>
       </c>
       <c r="E47" t="n">
-        <v>2.108640370124812</v>
+        <v>1.999182024797478</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.615983191129824</v>
+        <v>-1.634667426549183</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6170201992983038</v>
+        <v>0.6156156330348496</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2833024521668205</v>
       </c>
       <c r="E48" t="n">
-        <v>1.954654938169035</v>
+        <v>1.847360384112428</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.556819122390022</v>
+        <v>-1.569093746690291</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5473744453138679</v>
+        <v>0.5438995308575052</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2147819423895097</v>
       </c>
       <c r="E49" t="n">
-        <v>1.763179851382996</v>
+        <v>1.654083597982207</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.529206692894756</v>
+        <v>-1.549774390351387</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4739194258602513</v>
+        <v>0.4692633324983434</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1522129215423381</v>
       </c>
       <c r="E50" t="n">
-        <v>1.660074175299205</v>
+        <v>1.548022784562417</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.417536374709695</v>
+        <v>-1.434445191650509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4169950708919029</v>
+        <v>0.4160518798251759</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09527497460185345</v>
       </c>
       <c r="E51" t="n">
-        <v>1.50096543459243</v>
+        <v>1.401539079697729</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.359433760931984</v>
+        <v>-1.377634720433252</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3448949760666495</v>
+        <v>0.3451972060214676</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04377003928124621</v>
       </c>
       <c r="E52" t="n">
-        <v>1.400503905601275</v>
+        <v>1.310215991707572</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.302544447117817</v>
+        <v>-1.322185014036721</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2723364261408509</v>
+        <v>0.2794687610649398</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.002504506628774431</v>
       </c>
       <c r="E53" t="n">
-        <v>1.186453555233605</v>
+        <v>1.092775409672812</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.252072044663194</v>
+        <v>-1.271588507494371</v>
       </c>
       <c r="G53" t="n">
-        <v>0.231203951323771</v>
+        <v>0.2400708233798595</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04419029350997806</v>
       </c>
       <c r="E54" t="n">
-        <v>1.240162884305773</v>
+        <v>1.155477174936886</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.24342125972456</v>
+        <v>-1.264023998335373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1502355243943382</v>
+        <v>0.1542696372695189</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0817498997379076</v>
       </c>
       <c r="E55" t="n">
-        <v>1.065034495945547</v>
+        <v>0.972397364673572</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.213742862180659</v>
+        <v>-1.23517782820329</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1008990393544423</v>
+        <v>0.1055142513698047</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1157529620451362</v>
       </c>
       <c r="E56" t="n">
-        <v>1.047242349909734</v>
+        <v>0.9577560024179395</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.179221485119214</v>
+        <v>-1.199622737093481</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06457012275645208</v>
+        <v>0.06846261096681466</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1465791440857261</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9448623177271248</v>
+        <v>0.8612847848592381</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.145357129698678</v>
+        <v>-1.172661489046761</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03683066907727771</v>
+        <v>0.04067059555636759</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1748983844870772</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8864165926480496</v>
+        <v>0.8056540324994349</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.125316509602865</v>
+        <v>-1.160297801812946</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05476836800206134</v>
+        <v>-0.0568781374934244</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2014585675421036</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7728759528585346</v>
+        <v>0.6873857569915576</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.058231679969883</v>
+        <v>-1.091414192931965</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1246126885268608</v>
+        <v>-0.1186498521235896</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.226758461584976</v>
       </c>
       <c r="E60" t="n">
-        <v>0.776019436398261</v>
+        <v>0.7083199265190064</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.003111944441898</v>
+        <v>-1.042087928228705</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1500467262704903</v>
+        <v>-0.1410557501266745</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2512696039958113</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6521109951152034</v>
+        <v>0.579578726055041</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.001860683227989</v>
+        <v>-1.041628013080069</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1938540091901149</v>
+        <v>-0.185184243626299</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2753941402227579</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5782909636388596</v>
+        <v>0.4949149174075184</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.002129332076716</v>
+        <v>-1.034822728928344</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2636808091378234</v>
+        <v>-0.2546022301085532</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2995035116431443</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5273411254585096</v>
+        <v>0.4379803421025336</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.068822868821335</v>
+        <v>-1.110809471771596</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2933241655275428</v>
+        <v>-0.281309429787455</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3239179983741967</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4467683715617131</v>
+        <v>0.3639194026911899</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.03044696479989</v>
+        <v>-1.059425999308246</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3471240175813465</v>
+        <v>-0.3380089373498035</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3482873165638384</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3834738267727301</v>
+        <v>0.2933216973514816</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9738467405077237</v>
+        <v>-1.00573419081317</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3758008221348842</v>
+        <v>-0.368369177352159</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3725367921311889</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3322816206092893</v>
+        <v>0.2355651149713152</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.018166500307257</v>
+        <v>-1.055733537686338</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3982957830715145</v>
+        <v>-0.3906830923255166</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3962352510807499</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3590443021156458</v>
+        <v>0.2641075951004894</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.011248792452532</v>
+        <v>-1.047697432993977</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4175508972944185</v>
+        <v>-0.4135737262947832</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4188218260838239</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2648244787131256</v>
+        <v>0.1790670940455122</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.053409141125611</v>
+        <v>-1.08730853770033</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4263608274749616</v>
+        <v>-0.4297510591420515</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4397175564998979</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2075686928281409</v>
+        <v>0.1296298656873437</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.089056215265147</v>
+        <v>-1.12579102523241</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4379346286915948</v>
+        <v>-0.4452494696270474</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4579516250557132</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1700264762666056</v>
+        <v>0.07157543349663201</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.166302979610854</v>
+        <v>-1.206974079231206</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4754812253974029</v>
+        <v>-0.47960586125422</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4727453330314215</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1088592215460766</v>
+        <v>0.01334287543882947</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.298543915348727</v>
+        <v>-1.356125291957985</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5447210860125661</v>
+        <v>-0.5554641198654724</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.483338179614417</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0570041535493632</v>
+        <v>-0.03827128462288395</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.33481296997499</v>
+        <v>-1.39263963466352</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5328173139273875</v>
+        <v>-0.5431252534492029</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4887335160958116</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04686411955800229</v>
+        <v>-0.04830911524788125</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.336731473166444</v>
+        <v>-1.406364086718062</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5573271412294718</v>
+        <v>-0.5672145869011056</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4877653877557699</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09843739827317026</v>
+        <v>-0.00828335688371018</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.373983140157889</v>
+        <v>-1.453782068566504</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5676526013283781</v>
+        <v>-0.5763282070845577</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4791516610952873</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1318710395068886</v>
+        <v>0.03405949780073299</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.440243042619507</v>
+        <v>-1.522986888027485</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5378705403700225</v>
+        <v>-0.5520286267075641</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4621393733295618</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1772011525853309</v>
+        <v>0.08151252080335662</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.362952476831074</v>
+        <v>-1.444047927944416</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5384457993178405</v>
+        <v>-0.5561532625643812</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4365689626725167</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3050035421268421</v>
+        <v>0.208208193891959</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.356804214320257</v>
+        <v>-1.43635931469769</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4577007597463168</v>
+        <v>-0.4683240696557684</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4027478965012052</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4176082910900846</v>
+        <v>0.338346660378924</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.309135104200179</v>
+        <v>-1.39112848488943</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4778727841703114</v>
+        <v>-0.4905095003971262</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3616746342348697</v>
       </c>
       <c r="E79" t="n">
-        <v>0.495735464434609</v>
+        <v>0.42095910145872</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.274815213775279</v>
+        <v>-1.353432963278349</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4248540578451438</v>
+        <v>-0.4344494938985957</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3147930953192857</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6186043514769397</v>
+        <v>0.5550250973102294</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.287523472358548</v>
+        <v>-1.368810189771799</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3895617753916987</v>
+        <v>-0.3999062161157869</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2644717391456274</v>
       </c>
       <c r="E81" t="n">
-        <v>0.653365176425294</v>
+        <v>0.601806498191035</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.23625388364629</v>
+        <v>-1.317093826343722</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3006492267996317</v>
+        <v>-0.3095657404908111</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2132777313141401</v>
       </c>
       <c r="E82" t="n">
-        <v>0.757758614925266</v>
+        <v>0.714389346432914</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.169085831272126</v>
+        <v>-1.247214464664741</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2810466211310915</v>
+        <v>-0.284524455683636</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1638474276987429</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8856573676407771</v>
+        <v>0.856473926399694</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.134706078875499</v>
+        <v>-1.211644773074023</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2184777202432901</v>
+        <v>-0.220158235595926</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1188558111283151</v>
       </c>
       <c r="E84" t="n">
-        <v>1.093553615305267</v>
+        <v>1.065494411094183</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.066600675626971</v>
+        <v>-1.152636929479948</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.187311533694753</v>
+        <v>-0.1909777144510248</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08084078932775297</v>
       </c>
       <c r="E85" t="n">
-        <v>1.175050579643608</v>
+        <v>1.151259096002251</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9579511969420006</v>
+        <v>-1.02564194653271</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1309113359910409</v>
+        <v>-0.1418412559995834</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05276385160250407</v>
       </c>
       <c r="E86" t="n">
-        <v>1.363198216830467</v>
+        <v>1.350781967865379</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8716973959234784</v>
+        <v>-0.9388975693556421</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06082318743505971</v>
+        <v>-0.0674007040846034</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0370153192481644</v>
       </c>
       <c r="E87" t="n">
-        <v>1.460062187325623</v>
+        <v>1.454638108667897</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7826724236284114</v>
+        <v>-0.8484957717108482</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01263284014652719</v>
+        <v>-0.01493679603398112</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03500158268645769</v>
       </c>
       <c r="E88" t="n">
-        <v>1.550445004345235</v>
+        <v>1.565836831319595</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6536859350851733</v>
+        <v>-0.7127521806028847</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02047229026673664</v>
+        <v>0.01250480783464787</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04734115143596745</v>
       </c>
       <c r="E89" t="n">
-        <v>1.634494132746485</v>
+        <v>1.663267300474023</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.555916734773654</v>
+        <v>-0.6110758916000938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07149951099590476</v>
+        <v>0.07126298320517756</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07457924741649839</v>
       </c>
       <c r="E90" t="n">
-        <v>1.672994140855657</v>
+        <v>1.699155282548559</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4572379245014987</v>
+        <v>-0.5168078866105736</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08189651345126561</v>
+        <v>0.07405167505881316</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1167840508366364</v>
       </c>
       <c r="E91" t="n">
-        <v>1.678003565855564</v>
+        <v>1.702558654648467</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2816262602231822</v>
+        <v>-0.3316007862788052</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1143256415984387</v>
+        <v>0.1096958291021672</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1719259938126972</v>
       </c>
       <c r="E92" t="n">
-        <v>1.676412113436474</v>
+        <v>1.697403224839468</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1423420524947651</v>
+        <v>-0.1848571928539355</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1373505999920689</v>
+        <v>0.1270587209992535</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2361890845468981</v>
       </c>
       <c r="E93" t="n">
-        <v>1.69398379221056</v>
+        <v>1.711956984209646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02581752632755339</v>
+        <v>-0.01619389744025351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1205001849748916</v>
+        <v>0.1090242069803492</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3044478702797667</v>
       </c>
       <c r="E94" t="n">
-        <v>1.638131112540939</v>
+        <v>1.661100589107114</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1224172281182547</v>
+        <v>0.08179723018108381</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05705087508827228</v>
+        <v>0.04124585450418562</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3712990405284359</v>
       </c>
       <c r="E95" t="n">
-        <v>1.570158573668684</v>
+        <v>1.592488549171042</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2239942338508638</v>
+        <v>0.2009459146877791</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02283902822209965</v>
+        <v>0.01436052895819283</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4312822175440783</v>
       </c>
       <c r="E96" t="n">
-        <v>1.46023447300035</v>
+        <v>1.481192003297253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2707318332889422</v>
+        <v>0.2414023872387682</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00173841321228713</v>
+        <v>-0.008223494911982923</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4797677013061336</v>
       </c>
       <c r="E97" t="n">
-        <v>1.318897437656115</v>
+        <v>1.333957833713838</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3286855221613811</v>
+        <v>0.3084930570641138</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03412912818897597</v>
+        <v>-0.04326464909379169</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5146774003156215</v>
       </c>
       <c r="E98" t="n">
-        <v>1.208139649527872</v>
+        <v>1.230138194113594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3491875174539211</v>
+        <v>0.3442087534639224</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04422974088188235</v>
+        <v>-0.0515241411440622</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5364088228120961</v>
       </c>
       <c r="E99" t="n">
-        <v>1.051842961444187</v>
+        <v>1.068036354820455</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3538698916814653</v>
+        <v>0.3487568032671031</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09207405677286949</v>
+        <v>-0.1019848632139577</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5461864996407677</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9628471901109381</v>
+        <v>0.9832732629027509</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3110992429063859</v>
+        <v>0.3154983678042938</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1384130630821298</v>
+        <v>-0.1499795640583085</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5460051517269926</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8398527389327893</v>
+        <v>0.8568038972682394</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3520346112311931</v>
+        <v>0.3504037375136481</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09177474691423322</v>
+        <v>-0.09905892683977671</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5351712690116676</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6969359315541913</v>
+        <v>0.7151821525462774</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2889795143291191</v>
+        <v>0.2871325534941196</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1924888642251153</v>
+        <v>-0.2032260578856578</v>
       </c>
     </row>
   </sheetData>
